--- a/new-dataset/models/diff_weights/method-debug-dima/hnn-mse-sigma-0-nb_plays#-25-units#-25-__state__-1.xlsx
+++ b/new-dataset/models/diff_weights/method-debug-dima/hnn-mse-sigma-0-nb_plays#-25-units#-25-__state__-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zxchen/fu/feng/new-dataset/models/diff_weights/method-debug-dima/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42AAD44-AAE2-264A-B120-493FB8085A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A71BA1-6BA0-6544-B1CE-562DCA765649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nb_plays-50-pred" sheetId="1" r:id="rId1"/>
@@ -614,9 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -84789,10 +84787,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -85673,12 +85671,6 @@
         <v>0.31868140015095964</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
-      <c r="H27">
-        <f>MIN(H2:H21)</f>
-        <v>1.994642429735213</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
